--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1175.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1175.xlsx
@@ -354,7 +354,7 @@
         <v>2.03733895838259</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.080360415627042</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1175.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1175.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.085520758929744</v>
+        <v>1.166433334350586</v>
       </c>
       <c r="B1">
-        <v>2.03733895838259</v>
+        <v>2.437785387039185</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.080360415627042</v>
+        <v>2.367680788040161</v>
       </c>
       <c r="E1">
-        <v>1.132398727011039</v>
+        <v>1.23426365852356</v>
       </c>
     </row>
   </sheetData>
